--- a/xlsx/非零和博弈_intext.xlsx
+++ b/xlsx/非零和博弈_intext.xlsx
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E8%B4%8F</t>
   </si>
   <si>
-    <t>雙贏</t>
+    <t>双赢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A</t>
